--- a/src/test/java/ru/fds/tavrzcms3/testdata/client_manager_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/client_manager_update.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <t xml:space="preserve">surname: </t>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>client_manager_id: 0</t>
+  </si>
+  <si>
+    <t>фамилия 2</t>
+  </si>
+  <si>
+    <t>фамилия 5</t>
+  </si>
+  <si>
+    <t>фамилия 6</t>
+  </si>
+  <si>
+    <t>имя 3</t>
+  </si>
+  <si>
+    <t>имя 5</t>
+  </si>
+  <si>
+    <t>имя 6</t>
+  </si>
+  <si>
+    <t>имя 7</t>
   </si>
 </sst>
 </file>
@@ -438,7 +459,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +502,9 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -496,6 +519,9 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -515,6 +541,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
@@ -523,6 +555,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -530,6 +568,9 @@
       </c>
       <c r="B8" t="s">
         <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
